--- a/ep/ep/export/flourish/Joint_group_party.xlsx
+++ b/ep/ep/export/flourish/Joint_group_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="59">
   <si>
     <t>name1</t>
   </si>
@@ -136,17 +136,68 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/aldero.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/dk.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/hun.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/egyutt.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fdgr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fidesz.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/jobbik.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/lmp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/mszp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pmp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pnl.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pntcd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/prm.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/psd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/unpr.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +212,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,16 +253,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,6 +636,9 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H2">
         <v>0.963</v>
       </c>
@@ -604,6 +671,9 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O3">
         <v>0.851</v>
       </c>
@@ -633,6 +703,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E4">
         <v>0.893</v>
       </c>
@@ -677,6 +750,9 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O5">
         <v>0.597</v>
       </c>
@@ -706,6 +782,9 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H6">
         <v>0.67</v>
       </c>
@@ -720,6 +799,9 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E7">
         <v>0.732</v>
       </c>
@@ -779,6 +861,9 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J8">
         <v>0.447</v>
       </c>
@@ -823,6 +908,9 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O9">
         <v>0.594</v>
       </c>
@@ -852,6 +940,9 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E10">
         <v>0.778</v>
       </c>
@@ -911,6 +1002,9 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E11">
         <v>0.732</v>
       </c>
@@ -955,6 +1049,9 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O12">
         <v>0.829</v>
       </c>
@@ -981,6 +1078,9 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H13">
         <v>0.846</v>
       </c>
@@ -1031,6 +1131,9 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O14">
         <v>0.837</v>
       </c>
@@ -1045,6 +1148,9 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H15">
         <v>0.5679999999999999</v>
       </c>
@@ -1077,6 +1183,9 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H16">
         <v>0.764</v>
       </c>
@@ -1127,6 +1236,9 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H17">
         <v>0.6879999999999999</v>
       </c>
@@ -1177,6 +1289,9 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O18">
         <v>0.8090000000000001</v>
       </c>
@@ -1197,6 +1312,9 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O19">
         <v>0.5679999999999999</v>
       </c>
@@ -1226,6 +1344,9 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P20">
         <v>0.6919999999999999</v>
       </c>
@@ -1252,6 +1373,9 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J21">
         <v>1</v>
       </c>
@@ -1281,6 +1405,9 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="P22">
         <v>0.535</v>
       </c>
@@ -1307,6 +1434,9 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J23">
         <v>0.643</v>
       </c>
@@ -1351,6 +1481,9 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J24">
         <v>0.525</v>
       </c>
@@ -1395,6 +1528,9 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="P25">
         <v>0.596</v>
       </c>
@@ -1421,6 +1557,9 @@
       <c r="C26" t="s">
         <v>34</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J26">
         <v>0.62</v>
       </c>
@@ -1465,6 +1604,9 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J27">
         <v>0.897</v>
       </c>
@@ -1497,6 +1639,9 @@
       <c r="C28" t="s">
         <v>35</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O28">
         <v>0.657</v>
       </c>
@@ -1523,6 +1668,9 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J29">
         <v>0.696</v>
       </c>
@@ -1567,6 +1715,9 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J30">
         <v>0.639</v>
       </c>
@@ -1596,6 +1747,9 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="J31">
         <v>0.624</v>
       </c>
@@ -1640,6 +1794,9 @@
       <c r="C32" t="s">
         <v>40</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J32">
         <v>0.631</v>
       </c>
@@ -1684,6 +1841,9 @@
       <c r="C33" t="s">
         <v>41</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="P33">
         <v>0.705</v>
       </c>
@@ -1701,6 +1861,9 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H34">
         <v>0.543</v>
       </c>
@@ -1727,6 +1890,9 @@
       <c r="C35" t="s">
         <v>27</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P35">
         <v>0.501</v>
       </c>
@@ -1750,6 +1916,9 @@
       <c r="C36" t="s">
         <v>28</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H36">
         <v>0.57</v>
       </c>
@@ -1764,6 +1933,9 @@
       <c r="C37" t="s">
         <v>29</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="P37">
         <v>0.445</v>
       </c>
@@ -1787,6 +1959,9 @@
       <c r="C38" t="s">
         <v>30</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H38">
         <v>0.644</v>
       </c>
@@ -1801,6 +1976,9 @@
       <c r="C39" t="s">
         <v>31</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H39">
         <v>0.629</v>
       </c>
@@ -1827,6 +2005,9 @@
       <c r="C40" t="s">
         <v>32</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="P40">
         <v>0.721</v>
       </c>
@@ -1850,6 +2031,9 @@
       <c r="C41" t="s">
         <v>33</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="P41">
         <v>0.473</v>
       </c>
@@ -1873,6 +2057,9 @@
       <c r="C42" t="s">
         <v>34</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H42">
         <v>0.531</v>
       </c>
@@ -1899,6 +2086,9 @@
       <c r="C43" t="s">
         <v>22</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H43">
         <v>0.8070000000000001</v>
       </c>
@@ -1925,6 +2115,9 @@
       <c r="C44" t="s">
         <v>35</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="P44">
         <v>0.5659999999999999</v>
       </c>
@@ -1948,6 +2141,9 @@
       <c r="C45" t="s">
         <v>36</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H45">
         <v>0.5679999999999999</v>
       </c>
@@ -1974,6 +2170,9 @@
       <c r="C46" t="s">
         <v>38</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H46">
         <v>0.832</v>
       </c>
@@ -1988,6 +2187,9 @@
       <c r="C47" t="s">
         <v>39</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H47">
         <v>0.548</v>
       </c>
@@ -2014,6 +2216,9 @@
       <c r="C48" t="s">
         <v>40</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H48">
         <v>0.5639999999999999</v>
       </c>
@@ -2040,6 +2245,9 @@
       <c r="C49" t="s">
         <v>41</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="P49">
         <v>0.511</v>
       </c>
@@ -2057,6 +2265,9 @@
       <c r="C50" t="s">
         <v>26</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H50">
         <v>0.597</v>
       </c>
@@ -2089,6 +2300,9 @@
       <c r="C51" t="s">
         <v>27</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O51">
         <v>0.425</v>
       </c>
@@ -2118,6 +2332,9 @@
       <c r="C52" t="s">
         <v>28</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H52">
         <v>0.604</v>
       </c>
@@ -2150,6 +2367,9 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O53">
         <v>0.572</v>
       </c>
@@ -2179,6 +2399,9 @@
       <c r="C54" t="s">
         <v>30</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H54">
         <v>0.53</v>
       </c>
@@ -2193,6 +2416,9 @@
       <c r="C55" t="s">
         <v>31</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H55">
         <v>0.586</v>
       </c>
@@ -2240,6 +2466,9 @@
       <c r="C56" t="s">
         <v>32</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J56">
         <v>0.825</v>
       </c>
@@ -2284,6 +2513,9 @@
       <c r="C57" t="s">
         <v>33</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O57">
         <v>0.59</v>
       </c>
@@ -2313,6 +2545,9 @@
       <c r="C58" t="s">
         <v>34</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H58">
         <v>0.651</v>
       </c>
@@ -2360,6 +2595,9 @@
       <c r="C59" t="s">
         <v>35</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O59">
         <v>0.675</v>
       </c>
@@ -2386,6 +2624,9 @@
       <c r="C60" t="s">
         <v>36</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H60">
         <v>0.604</v>
       </c>
@@ -2433,6 +2674,9 @@
       <c r="C61" t="s">
         <v>37</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O61">
         <v>0.738</v>
       </c>
@@ -2447,6 +2691,9 @@
       <c r="C62" t="s">
         <v>38</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H62">
         <v>0.698</v>
       </c>
@@ -2479,6 +2726,9 @@
       <c r="C63" t="s">
         <v>39</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H63">
         <v>0.631</v>
       </c>
@@ -2526,6 +2776,9 @@
       <c r="C64" t="s">
         <v>40</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H64">
         <v>0.615</v>
       </c>
@@ -2573,6 +2826,9 @@
       <c r="C65" t="s">
         <v>41</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O65">
         <v>0.453</v>
       </c>
@@ -2593,6 +2849,9 @@
       <c r="C66" t="s">
         <v>26</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H66">
         <v>0.715</v>
       </c>
@@ -2625,6 +2884,9 @@
       <c r="C67" t="s">
         <v>27</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O67">
         <v>0.853</v>
       </c>
@@ -2654,6 +2916,9 @@
       <c r="C68" t="s">
         <v>28</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E68">
         <v>0.831</v>
       </c>
@@ -2698,6 +2963,9 @@
       <c r="C69" t="s">
         <v>29</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O69">
         <v>0.5649999999999999</v>
       </c>
@@ -2727,6 +2995,9 @@
       <c r="C70" t="s">
         <v>30</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H70">
         <v>0.853</v>
       </c>
@@ -2741,6 +3012,9 @@
       <c r="C71" t="s">
         <v>31</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E71">
         <v>0.954</v>
       </c>
@@ -2800,6 +3074,9 @@
       <c r="C72" t="s">
         <v>32</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J72">
         <v>0.491</v>
       </c>
@@ -2844,6 +3121,9 @@
       <c r="C73" t="s">
         <v>33</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O73">
         <v>0.555</v>
       </c>
@@ -2873,6 +3153,9 @@
       <c r="C74" t="s">
         <v>34</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E74">
         <v>0.598</v>
       </c>
@@ -2932,6 +3215,9 @@
       <c r="C75" t="s">
         <v>22</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E75">
         <v>0.974</v>
       </c>
@@ -2976,6 +3262,9 @@
       <c r="C76" t="s">
         <v>35</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O76">
         <v>0.964</v>
       </c>
@@ -3002,6 +3291,9 @@
       <c r="C77" t="s">
         <v>36</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H77">
         <v>0.827</v>
       </c>
@@ -3052,6 +3344,9 @@
       <c r="C78" t="s">
         <v>37</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O78">
         <v>0.9360000000000001</v>
       </c>
@@ -3066,6 +3361,9 @@
       <c r="C79" t="s">
         <v>38</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H79">
         <v>0.62</v>
       </c>
@@ -3098,6 +3396,9 @@
       <c r="C80" t="s">
         <v>39</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H80">
         <v>0.638</v>
       </c>
@@ -3148,6 +3449,9 @@
       <c r="C81" t="s">
         <v>40</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H81">
         <v>0.911</v>
       </c>
@@ -3198,6 +3502,9 @@
       <c r="C82" t="s">
         <v>41</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O82">
         <v>0.824</v>
       </c>
@@ -3218,6 +3525,9 @@
       <c r="C83" t="s">
         <v>26</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H83">
         <v>0.741</v>
       </c>
@@ -3250,6 +3560,9 @@
       <c r="C84" t="s">
         <v>27</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O84">
         <v>0.987</v>
       </c>
@@ -3279,6 +3592,9 @@
       <c r="C85" t="s">
         <v>28</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E85">
         <v>0.715</v>
       </c>
@@ -3323,6 +3639,9 @@
       <c r="C86" t="s">
         <v>29</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O86">
         <v>0.719</v>
       </c>
@@ -3352,6 +3671,9 @@
       <c r="C87" t="s">
         <v>30</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H87">
         <v>0.543</v>
       </c>
@@ -3366,6 +3688,9 @@
       <c r="C88" t="s">
         <v>31</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E88">
         <v>0.593</v>
       </c>
@@ -3425,6 +3750,9 @@
       <c r="C89" t="s">
         <v>32</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J89">
         <v>0.421</v>
       </c>
@@ -3469,6 +3797,9 @@
       <c r="C90" t="s">
         <v>33</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O90">
         <v>0.719</v>
       </c>
@@ -3498,6 +3829,9 @@
       <c r="C91" t="s">
         <v>34</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E91">
         <v>0.979</v>
       </c>
@@ -3557,6 +3891,9 @@
       <c r="C92" t="s">
         <v>22</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E92">
         <v>0.976</v>
       </c>
@@ -3601,6 +3938,9 @@
       <c r="C93" t="s">
         <v>35</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O93">
         <v>0.8149999999999999</v>
       </c>
@@ -3627,6 +3967,9 @@
       <c r="C94" t="s">
         <v>36</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H94">
         <v>0.6830000000000001</v>
       </c>
@@ -3677,6 +4020,9 @@
       <c r="C95" t="s">
         <v>37</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O95">
         <v>0.767</v>
       </c>
@@ -3691,6 +4037,9 @@
       <c r="C96" t="s">
         <v>38</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H96">
         <v>0.573</v>
       </c>
@@ -3723,6 +4072,9 @@
       <c r="C97" t="s">
         <v>39</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H97">
         <v>0.9350000000000001</v>
       </c>
@@ -3773,6 +4125,9 @@
       <c r="C98" t="s">
         <v>40</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H98">
         <v>0.618</v>
       </c>
@@ -3823,6 +4178,9 @@
       <c r="C99" t="s">
         <v>41</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O99">
         <v>0.99</v>
       </c>
@@ -3843,6 +4201,9 @@
       <c r="C100" t="s">
         <v>26</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O100">
         <v>0.723</v>
       </c>
@@ -3872,6 +4233,9 @@
       <c r="C101" t="s">
         <v>27</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O101">
         <v>0.715</v>
       </c>
@@ -3901,6 +4265,9 @@
       <c r="C102" t="s">
         <v>28</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I102">
         <v>0.7</v>
       </c>
@@ -3918,6 +4285,9 @@
       <c r="C103" t="s">
         <v>29</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O103">
         <v>1</v>
       </c>
@@ -3947,6 +4317,9 @@
       <c r="C104" t="s">
         <v>31</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I104">
         <v>0.871</v>
       </c>
@@ -3982,6 +4355,9 @@
       <c r="C105" t="s">
         <v>32</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O105">
         <v>0.581</v>
       </c>
@@ -4011,6 +4387,9 @@
       <c r="C106" t="s">
         <v>33</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O106">
         <v>1</v>
       </c>
@@ -4040,6 +4419,9 @@
       <c r="C107" t="s">
         <v>34</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I107">
         <v>0.829</v>
       </c>
@@ -4075,6 +4457,9 @@
       <c r="C108" t="s">
         <v>22</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I108">
         <v>1</v>
       </c>
@@ -4110,6 +4495,9 @@
       <c r="C109" t="s">
         <v>35</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O109">
         <v>0.5600000000000001</v>
       </c>
@@ -4136,6 +4524,9 @@
       <c r="C110" t="s">
         <v>36</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I110">
         <v>0.714</v>
       </c>
@@ -4171,6 +4562,9 @@
       <c r="C111" t="s">
         <v>39</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I111">
         <v>0.792</v>
       </c>
@@ -4206,6 +4600,9 @@
       <c r="C112" t="s">
         <v>40</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I112">
         <v>0.855</v>
       </c>
@@ -4241,6 +4638,9 @@
       <c r="C113" t="s">
         <v>41</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O113">
         <v>0.723</v>
       </c>
@@ -4252,6 +4652,120 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Joint_group_party.xlsx
+++ b/ep/ep/export/flourish/Joint_group_party.xlsx
@@ -79,19 +79,19 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
-  </si>
-  <si>
-    <t>Verts/ALE</t>
   </si>
   <si>
     <t>ALDE RO</t>
@@ -1000,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
@@ -1602,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -2084,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
@@ -2269,25 +2269,25 @@
         <v>42</v>
       </c>
       <c r="H50">
-        <v>0.597</v>
+        <v>0.715</v>
       </c>
       <c r="O50">
-        <v>0.733</v>
+        <v>0.803</v>
       </c>
       <c r="P50">
-        <v>0.525</v>
+        <v>0.766</v>
       </c>
       <c r="Q50">
-        <v>0.553</v>
+        <v>0.757</v>
       </c>
       <c r="R50">
-        <v>0.512</v>
+        <v>0.76</v>
       </c>
       <c r="S50">
-        <v>0.526</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T50">
-        <v>0.5679999999999999</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2304,22 +2304,22 @@
         <v>43</v>
       </c>
       <c r="O51">
-        <v>0.425</v>
+        <v>0.853</v>
       </c>
       <c r="P51">
-        <v>0.517</v>
+        <v>0.764</v>
       </c>
       <c r="Q51">
-        <v>0.536</v>
+        <v>0.758</v>
       </c>
       <c r="R51">
-        <v>0.522</v>
+        <v>0.738</v>
       </c>
       <c r="S51">
-        <v>0.496</v>
+        <v>0.712</v>
       </c>
       <c r="T51">
-        <v>0.681</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2335,26 +2335,38 @@
       <c r="D52" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E52">
+        <v>0.831</v>
+      </c>
+      <c r="F52">
+        <v>0.837</v>
+      </c>
+      <c r="G52">
+        <v>0.874</v>
+      </c>
       <c r="H52">
-        <v>0.604</v>
+        <v>0.767</v>
+      </c>
+      <c r="I52">
+        <v>0.824</v>
       </c>
       <c r="J52">
-        <v>0.573</v>
+        <v>0.785</v>
       </c>
       <c r="K52">
-        <v>0.479</v>
+        <v>0.673</v>
       </c>
       <c r="L52">
-        <v>0.47</v>
+        <v>0.527</v>
       </c>
       <c r="M52">
-        <v>0.527</v>
+        <v>0.638</v>
       </c>
       <c r="N52">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="O52">
-        <v>0.5570000000000001</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2371,22 +2383,22 @@
         <v>45</v>
       </c>
       <c r="O53">
-        <v>0.572</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P53">
-        <v>0.617</v>
+        <v>0.55</v>
       </c>
       <c r="Q53">
-        <v>0.631</v>
+        <v>0.53</v>
       </c>
       <c r="R53">
-        <v>0.609</v>
+        <v>0.576</v>
       </c>
       <c r="S53">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="T53">
-        <v>0.713</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2403,7 +2415,7 @@
         <v>46</v>
       </c>
       <c r="H54">
-        <v>0.53</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2419,41 +2431,53 @@
       <c r="D55" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E55">
+        <v>0.954</v>
+      </c>
+      <c r="F55">
+        <v>0.98</v>
+      </c>
+      <c r="G55">
+        <v>0.986</v>
+      </c>
       <c r="H55">
-        <v>0.586</v>
+        <v>0.926</v>
+      </c>
+      <c r="I55">
+        <v>0.9409999999999999</v>
       </c>
       <c r="J55">
-        <v>0.582</v>
+        <v>0.969</v>
       </c>
       <c r="K55">
-        <v>0.614</v>
+        <v>0.968</v>
       </c>
       <c r="L55">
-        <v>0.731</v>
+        <v>0.981</v>
       </c>
       <c r="M55">
-        <v>0.733</v>
+        <v>0.978</v>
       </c>
       <c r="N55">
-        <v>0.741</v>
+        <v>0.965</v>
       </c>
       <c r="O55">
-        <v>0.695</v>
+        <v>0.962</v>
       </c>
       <c r="P55">
-        <v>0.475</v>
+        <v>0.973</v>
       </c>
       <c r="Q55">
-        <v>0.468</v>
+        <v>0.97</v>
       </c>
       <c r="R55">
-        <v>0.468</v>
+        <v>0.974</v>
       </c>
       <c r="S55">
-        <v>0.51</v>
+        <v>0.963</v>
       </c>
       <c r="T55">
-        <v>0.551</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2470,37 +2494,37 @@
         <v>48</v>
       </c>
       <c r="J56">
-        <v>0.825</v>
+        <v>0.491</v>
       </c>
       <c r="K56">
-        <v>0.872</v>
+        <v>0.572</v>
       </c>
       <c r="L56">
-        <v>0.86</v>
+        <v>0.658</v>
       </c>
       <c r="M56">
-        <v>0.76</v>
+        <v>0.851</v>
       </c>
       <c r="N56">
-        <v>0.746</v>
+        <v>0.67</v>
       </c>
       <c r="O56">
-        <v>0.759</v>
+        <v>0.556</v>
       </c>
       <c r="P56">
-        <v>0.99</v>
+        <v>0.472</v>
       </c>
       <c r="Q56">
-        <v>0.987</v>
+        <v>0.458</v>
       </c>
       <c r="R56">
-        <v>0.99</v>
+        <v>0.457</v>
       </c>
       <c r="S56">
-        <v>0.908</v>
+        <v>0.462</v>
       </c>
       <c r="T56">
-        <v>0.992</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2517,22 +2541,22 @@
         <v>49</v>
       </c>
       <c r="O57">
-        <v>0.59</v>
+        <v>0.555</v>
       </c>
       <c r="P57">
-        <v>0.63</v>
+        <v>0.537</v>
       </c>
       <c r="Q57">
-        <v>0.635</v>
+        <v>0.541</v>
       </c>
       <c r="R57">
-        <v>0.59</v>
+        <v>0.538</v>
       </c>
       <c r="S57">
-        <v>0.507</v>
+        <v>0.538</v>
       </c>
       <c r="T57">
-        <v>0.6889999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2548,41 +2572,53 @@
       <c r="D58" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E58">
+        <v>0.598</v>
+      </c>
+      <c r="F58">
+        <v>0.583</v>
+      </c>
+      <c r="G58">
+        <v>0.747</v>
+      </c>
       <c r="H58">
-        <v>0.651</v>
+        <v>0.608</v>
+      </c>
+      <c r="I58">
+        <v>0.771</v>
       </c>
       <c r="J58">
-        <v>0.524</v>
+        <v>0.753</v>
       </c>
       <c r="K58">
-        <v>0.646</v>
+        <v>0.718</v>
       </c>
       <c r="L58">
         <v>0.791</v>
       </c>
       <c r="M58">
-        <v>0.765</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="N58">
-        <v>0.793</v>
+        <v>0.767</v>
       </c>
       <c r="O58">
-        <v>0.766</v>
+        <v>0.775</v>
       </c>
       <c r="P58">
-        <v>0.527</v>
+        <v>0.756</v>
       </c>
       <c r="Q58">
-        <v>0.542</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>0.507</v>
+        <v>0.735</v>
       </c>
       <c r="S58">
-        <v>0.519</v>
+        <v>0.737</v>
       </c>
       <c r="T58">
-        <v>0.6929999999999999</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2593,25 +2629,43 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>0.974</v>
+      </c>
+      <c r="H59">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.837</v>
+      </c>
+      <c r="J59">
+        <v>0.955</v>
+      </c>
+      <c r="N59">
+        <v>0.955</v>
       </c>
       <c r="O59">
-        <v>0.675</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="P59">
-        <v>0.455</v>
+        <v>0.85</v>
       </c>
       <c r="Q59">
-        <v>0.442</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R59">
-        <v>0.449</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S59">
-        <v>0.418</v>
+        <v>0.838</v>
+      </c>
+      <c r="T59">
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2622,46 +2676,25 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60">
-        <v>0.604</v>
-      </c>
-      <c r="J60">
-        <v>0.569</v>
-      </c>
-      <c r="K60">
-        <v>0.597</v>
-      </c>
-      <c r="L60">
-        <v>0.72</v>
-      </c>
-      <c r="M60">
-        <v>0.732</v>
-      </c>
-      <c r="N60">
-        <v>0.742</v>
+        <v>52</v>
       </c>
       <c r="O60">
-        <v>0.698</v>
+        <v>0.964</v>
       </c>
       <c r="P60">
-        <v>0.473</v>
+        <v>0.963</v>
       </c>
       <c r="Q60">
-        <v>0.45</v>
+        <v>0.964</v>
       </c>
       <c r="R60">
-        <v>0.445</v>
+        <v>0.968</v>
       </c>
       <c r="S60">
-        <v>0.498</v>
-      </c>
-      <c r="T60">
-        <v>0.511</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2672,13 +2705,49 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H61">
+        <v>0.827</v>
+      </c>
+      <c r="I61">
+        <v>0.883</v>
+      </c>
+      <c r="J61">
+        <v>0.914</v>
+      </c>
+      <c r="K61">
+        <v>0.906</v>
+      </c>
+      <c r="L61">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.92</v>
+      </c>
+      <c r="N61">
+        <v>0.903</v>
       </c>
       <c r="O61">
-        <v>0.738</v>
+        <v>0.907</v>
+      </c>
+      <c r="P61">
+        <v>0.947</v>
+      </c>
+      <c r="Q61">
+        <v>0.955</v>
+      </c>
+      <c r="R61">
+        <v>0.965</v>
+      </c>
+      <c r="S61">
+        <v>0.957</v>
+      </c>
+      <c r="T61">
+        <v>0.957</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2689,31 +2758,13 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62">
-        <v>0.698</v>
-      </c>
-      <c r="J62">
-        <v>0.681</v>
-      </c>
-      <c r="K62">
-        <v>0.743</v>
-      </c>
-      <c r="L62">
-        <v>0.841</v>
-      </c>
-      <c r="M62">
-        <v>0.737</v>
-      </c>
-      <c r="N62">
-        <v>0.821</v>
+        <v>54</v>
       </c>
       <c r="O62">
-        <v>0.785</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2724,46 +2775,31 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63">
-        <v>0.631</v>
+        <v>0.62</v>
       </c>
       <c r="J63">
-        <v>0.527</v>
+        <v>0.718</v>
       </c>
       <c r="K63">
-        <v>0.674</v>
+        <v>0.676</v>
       </c>
       <c r="L63">
-        <v>0.796</v>
+        <v>0.763</v>
       </c>
       <c r="M63">
-        <v>0.758</v>
+        <v>0.547</v>
       </c>
       <c r="N63">
-        <v>0.796</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="O63">
-        <v>0.754</v>
-      </c>
-      <c r="P63">
-        <v>0.514</v>
-      </c>
-      <c r="Q63">
-        <v>0.532</v>
-      </c>
-      <c r="R63">
-        <v>0.524</v>
-      </c>
-      <c r="S63">
-        <v>0.524</v>
-      </c>
-      <c r="T63">
-        <v>0.58</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2774,46 +2810,49 @@
         <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64">
-        <v>0.615</v>
+        <v>0.638</v>
+      </c>
+      <c r="I64">
+        <v>0.779</v>
       </c>
       <c r="J64">
-        <v>0.573</v>
+        <v>0.729</v>
       </c>
       <c r="K64">
-        <v>0.597</v>
+        <v>0.681</v>
       </c>
       <c r="L64">
-        <v>0.724</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="M64">
-        <v>0.725</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="N64">
-        <v>0.741</v>
+        <v>0.788</v>
       </c>
       <c r="O64">
-        <v>0.705</v>
+        <v>0.797</v>
       </c>
       <c r="P64">
-        <v>0.476</v>
+        <v>0.777</v>
       </c>
       <c r="Q64">
-        <v>0.442</v>
+        <v>0.771</v>
       </c>
       <c r="R64">
-        <v>0.458</v>
+        <v>0.737</v>
       </c>
       <c r="S64">
-        <v>0.518</v>
+        <v>0.781</v>
       </c>
       <c r="T64">
-        <v>0.541</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2824,19 +2863,49 @@
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="H65">
+        <v>0.911</v>
+      </c>
+      <c r="I65">
+        <v>0.925</v>
+      </c>
+      <c r="J65">
+        <v>0.96</v>
+      </c>
+      <c r="K65">
+        <v>0.969</v>
+      </c>
+      <c r="L65">
+        <v>0.976</v>
+      </c>
+      <c r="M65">
+        <v>0.979</v>
+      </c>
+      <c r="N65">
+        <v>0.959</v>
       </c>
       <c r="O65">
-        <v>0.453</v>
+        <v>0.951</v>
       </c>
       <c r="P65">
-        <v>0.506</v>
+        <v>0.97</v>
       </c>
       <c r="Q65">
-        <v>0.531</v>
+        <v>0.968</v>
+      </c>
+      <c r="R65">
+        <v>0.974</v>
+      </c>
+      <c r="S65">
+        <v>0.958</v>
+      </c>
+      <c r="T65">
+        <v>0.955</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2844,34 +2913,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66">
-        <v>0.715</v>
+        <v>58</v>
       </c>
       <c r="O66">
-        <v>0.803</v>
+        <v>0.824</v>
       </c>
       <c r="P66">
-        <v>0.766</v>
+        <v>0.773</v>
       </c>
       <c r="Q66">
-        <v>0.757</v>
-      </c>
-      <c r="R66">
-        <v>0.76</v>
-      </c>
-      <c r="S66">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="T66">
-        <v>0.786</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2882,28 +2939,28 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O67">
-        <v>0.853</v>
+        <v>0.723</v>
       </c>
       <c r="P67">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="Q67">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="R67">
-        <v>0.738</v>
+        <v>0.751</v>
       </c>
       <c r="S67">
-        <v>0.712</v>
+        <v>0.652</v>
       </c>
       <c r="T67">
-        <v>0.649</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -2914,43 +2971,28 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68">
-        <v>0.831</v>
-      </c>
-      <c r="F68">
-        <v>0.837</v>
-      </c>
-      <c r="G68">
-        <v>0.874</v>
-      </c>
-      <c r="H68">
-        <v>0.767</v>
-      </c>
-      <c r="I68">
+        <v>43</v>
+      </c>
+      <c r="O68">
+        <v>0.715</v>
+      </c>
+      <c r="P68">
+        <v>0.762</v>
+      </c>
+      <c r="Q68">
+        <v>0.751</v>
+      </c>
+      <c r="R68">
         <v>0.824</v>
       </c>
-      <c r="J68">
-        <v>0.785</v>
-      </c>
-      <c r="K68">
-        <v>0.673</v>
-      </c>
-      <c r="L68">
-        <v>0.527</v>
-      </c>
-      <c r="M68">
-        <v>0.638</v>
-      </c>
-      <c r="N68">
-        <v>0.545</v>
-      </c>
-      <c r="O68">
-        <v>0.669</v>
+      <c r="S68">
+        <v>0.78</v>
+      </c>
+      <c r="T68">
+        <v>0.79</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -2961,28 +3003,16 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O69">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="P69">
-        <v>0.55</v>
-      </c>
-      <c r="Q69">
-        <v>0.53</v>
-      </c>
-      <c r="R69">
-        <v>0.576</v>
-      </c>
-      <c r="S69">
-        <v>0.527</v>
-      </c>
-      <c r="T69">
-        <v>0.479</v>
+        <v>44</v>
+      </c>
+      <c r="I69">
+        <v>0.7</v>
+      </c>
+      <c r="J69">
+        <v>0.872</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -2993,13 +3023,28 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70">
-        <v>0.853</v>
+        <v>45</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0.998</v>
+      </c>
+      <c r="Q70">
+        <v>0.997</v>
+      </c>
+      <c r="R70">
+        <v>0.997</v>
+      </c>
+      <c r="S70">
+        <v>0.995</v>
+      </c>
+      <c r="T70">
+        <v>0.998</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3015,53 +3060,29 @@
       <c r="D71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E71">
-        <v>0.954</v>
-      </c>
-      <c r="F71">
-        <v>0.98</v>
-      </c>
-      <c r="G71">
-        <v>0.986</v>
-      </c>
-      <c r="H71">
-        <v>0.926</v>
-      </c>
       <c r="I71">
-        <v>0.9409999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="J71">
-        <v>0.969</v>
-      </c>
-      <c r="K71">
-        <v>0.968</v>
-      </c>
-      <c r="L71">
-        <v>0.981</v>
-      </c>
-      <c r="M71">
-        <v>0.978</v>
-      </c>
-      <c r="N71">
-        <v>0.965</v>
+        <v>0.959</v>
       </c>
       <c r="O71">
-        <v>0.962</v>
+        <v>0.573</v>
       </c>
       <c r="P71">
-        <v>0.973</v>
+        <v>0.532</v>
       </c>
       <c r="Q71">
-        <v>0.97</v>
+        <v>0.532</v>
       </c>
       <c r="R71">
-        <v>0.974</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="S71">
-        <v>0.963</v>
+        <v>0.506</v>
       </c>
       <c r="T71">
-        <v>0.966</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3077,38 +3098,23 @@
       <c r="D72" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J72">
-        <v>0.491</v>
-      </c>
-      <c r="K72">
-        <v>0.572</v>
-      </c>
-      <c r="L72">
-        <v>0.658</v>
-      </c>
-      <c r="M72">
-        <v>0.851</v>
-      </c>
-      <c r="N72">
+      <c r="O72">
+        <v>0.581</v>
+      </c>
+      <c r="P72">
+        <v>0.622</v>
+      </c>
+      <c r="Q72">
+        <v>0.633</v>
+      </c>
+      <c r="R72">
+        <v>0.601</v>
+      </c>
+      <c r="S72">
+        <v>0.494</v>
+      </c>
+      <c r="T72">
         <v>0.67</v>
-      </c>
-      <c r="O72">
-        <v>0.556</v>
-      </c>
-      <c r="P72">
-        <v>0.472</v>
-      </c>
-      <c r="Q72">
-        <v>0.458</v>
-      </c>
-      <c r="R72">
-        <v>0.457</v>
-      </c>
-      <c r="S72">
-        <v>0.462</v>
-      </c>
-      <c r="T72">
-        <v>0.517</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3125,22 +3131,22 @@
         <v>49</v>
       </c>
       <c r="O73">
-        <v>0.555</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>0.537</v>
+        <v>0.997</v>
       </c>
       <c r="Q73">
-        <v>0.541</v>
+        <v>0.997</v>
       </c>
       <c r="R73">
-        <v>0.538</v>
+        <v>0.997</v>
       </c>
       <c r="S73">
-        <v>0.538</v>
+        <v>0.994</v>
       </c>
       <c r="T73">
-        <v>0.42</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3156,53 +3162,29 @@
       <c r="D74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E74">
-        <v>0.598</v>
-      </c>
-      <c r="F74">
-        <v>0.583</v>
-      </c>
-      <c r="G74">
-        <v>0.747</v>
-      </c>
-      <c r="H74">
-        <v>0.608</v>
-      </c>
       <c r="I74">
-        <v>0.771</v>
+        <v>0.829</v>
       </c>
       <c r="J74">
-        <v>0.753</v>
-      </c>
-      <c r="K74">
-        <v>0.718</v>
-      </c>
-      <c r="L74">
-        <v>0.791</v>
-      </c>
-      <c r="M74">
+        <v>0.831</v>
+      </c>
+      <c r="O74">
+        <v>0.74</v>
+      </c>
+      <c r="P74">
+        <v>0.766</v>
+      </c>
+      <c r="Q74">
+        <v>0.751</v>
+      </c>
+      <c r="R74">
         <v>0.8169999999999999</v>
       </c>
-      <c r="N74">
-        <v>0.767</v>
-      </c>
-      <c r="O74">
-        <v>0.775</v>
-      </c>
-      <c r="P74">
-        <v>0.756</v>
-      </c>
-      <c r="Q74">
-        <v>0.75</v>
-      </c>
-      <c r="R74">
-        <v>0.735</v>
-      </c>
       <c r="S74">
-        <v>0.737</v>
+        <v>0.762</v>
       </c>
       <c r="T74">
-        <v>0.701</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3213,43 +3195,34 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E75">
-        <v>0.974</v>
-      </c>
-      <c r="H75">
-        <v>0.6909999999999999</v>
-      </c>
       <c r="I75">
-        <v>0.837</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0.955</v>
-      </c>
-      <c r="N75">
-        <v>0.955</v>
+        <v>0.982</v>
       </c>
       <c r="O75">
-        <v>0.9409999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="P75">
-        <v>0.85</v>
+        <v>0.604</v>
       </c>
       <c r="Q75">
-        <v>0.8129999999999999</v>
+        <v>0.587</v>
       </c>
       <c r="R75">
-        <v>0.8100000000000001</v>
+        <v>0.616</v>
       </c>
       <c r="S75">
-        <v>0.838</v>
+        <v>0.588</v>
       </c>
       <c r="T75">
-        <v>0.8179999999999999</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3266,19 +3239,19 @@
         <v>52</v>
       </c>
       <c r="O76">
-        <v>0.964</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P76">
-        <v>0.963</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Q76">
-        <v>0.964</v>
+        <v>0.543</v>
       </c>
       <c r="R76">
-        <v>0.968</v>
+        <v>0.57</v>
       </c>
       <c r="S76">
-        <v>0.946</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3294,44 +3267,29 @@
       <c r="D77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H77">
-        <v>0.827</v>
-      </c>
       <c r="I77">
-        <v>0.883</v>
+        <v>0.714</v>
       </c>
       <c r="J77">
-        <v>0.914</v>
-      </c>
-      <c r="K77">
-        <v>0.906</v>
-      </c>
-      <c r="L77">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="M77">
-        <v>0.92</v>
-      </c>
-      <c r="N77">
-        <v>0.903</v>
+        <v>0.922</v>
       </c>
       <c r="O77">
-        <v>0.907</v>
+        <v>0.554</v>
       </c>
       <c r="P77">
-        <v>0.947</v>
+        <v>0.571</v>
       </c>
       <c r="Q77">
-        <v>0.955</v>
+        <v>0.538</v>
       </c>
       <c r="R77">
-        <v>0.965</v>
+        <v>0.555</v>
       </c>
       <c r="S77">
-        <v>0.957</v>
+        <v>0.555</v>
       </c>
       <c r="T77">
-        <v>0.957</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3342,13 +3300,34 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="I78">
+        <v>0.792</v>
+      </c>
+      <c r="J78">
+        <v>0.827</v>
       </c>
       <c r="O78">
-        <v>0.9360000000000001</v>
+        <v>0.714</v>
+      </c>
+      <c r="P78">
+        <v>0.745</v>
+      </c>
+      <c r="Q78">
+        <v>0.743</v>
+      </c>
+      <c r="R78">
+        <v>0.801</v>
+      </c>
+      <c r="S78">
+        <v>0.725</v>
+      </c>
+      <c r="T78">
+        <v>0.613</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3359,31 +3338,34 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79">
-        <v>0.62</v>
+        <v>57</v>
+      </c>
+      <c r="I79">
+        <v>0.855</v>
       </c>
       <c r="J79">
-        <v>0.718</v>
-      </c>
-      <c r="K79">
-        <v>0.676</v>
-      </c>
-      <c r="L79">
-        <v>0.763</v>
-      </c>
-      <c r="M79">
-        <v>0.547</v>
-      </c>
-      <c r="N79">
-        <v>0.8080000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="O79">
-        <v>0.891</v>
+        <v>0.552</v>
+      </c>
+      <c r="P79">
+        <v>0.548</v>
+      </c>
+      <c r="Q79">
+        <v>0.532</v>
+      </c>
+      <c r="R79">
+        <v>0.551</v>
+      </c>
+      <c r="S79">
+        <v>0.537</v>
+      </c>
+      <c r="T79">
+        <v>0.462</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3394,49 +3376,19 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80">
-        <v>0.638</v>
-      </c>
-      <c r="I80">
-        <v>0.779</v>
-      </c>
-      <c r="J80">
-        <v>0.729</v>
-      </c>
-      <c r="K80">
-        <v>0.681</v>
-      </c>
-      <c r="L80">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="M80">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="N80">
-        <v>0.788</v>
+        <v>58</v>
       </c>
       <c r="O80">
-        <v>0.797</v>
+        <v>0.723</v>
       </c>
       <c r="P80">
-        <v>0.777</v>
+        <v>0.743</v>
       </c>
       <c r="Q80">
-        <v>0.771</v>
-      </c>
-      <c r="R80">
-        <v>0.737</v>
-      </c>
-      <c r="S80">
-        <v>0.781</v>
-      </c>
-      <c r="T80">
-        <v>0.777</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3444,52 +3396,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>0.911</v>
-      </c>
-      <c r="I81">
-        <v>0.925</v>
-      </c>
-      <c r="J81">
-        <v>0.96</v>
-      </c>
-      <c r="K81">
-        <v>0.969</v>
-      </c>
-      <c r="L81">
-        <v>0.976</v>
-      </c>
-      <c r="M81">
-        <v>0.979</v>
-      </c>
-      <c r="N81">
-        <v>0.959</v>
+        <v>0.597</v>
       </c>
       <c r="O81">
-        <v>0.951</v>
+        <v>0.733</v>
       </c>
       <c r="P81">
-        <v>0.97</v>
+        <v>0.525</v>
       </c>
       <c r="Q81">
-        <v>0.968</v>
+        <v>0.553</v>
       </c>
       <c r="R81">
-        <v>0.974</v>
+        <v>0.512</v>
       </c>
       <c r="S81">
-        <v>0.958</v>
+        <v>0.526</v>
       </c>
       <c r="T81">
-        <v>0.955</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3497,22 +3431,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O82">
-        <v>0.824</v>
+        <v>0.425</v>
       </c>
       <c r="P82">
-        <v>0.773</v>
+        <v>0.517</v>
       </c>
       <c r="Q82">
-        <v>0.769</v>
+        <v>0.536</v>
+      </c>
+      <c r="R82">
+        <v>0.522</v>
+      </c>
+      <c r="S82">
+        <v>0.496</v>
+      </c>
+      <c r="T82">
+        <v>0.681</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3523,31 +3466,31 @@
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>0.741</v>
+        <v>0.604</v>
+      </c>
+      <c r="J83">
+        <v>0.573</v>
+      </c>
+      <c r="K83">
+        <v>0.479</v>
+      </c>
+      <c r="L83">
+        <v>0.47</v>
+      </c>
+      <c r="M83">
+        <v>0.527</v>
+      </c>
+      <c r="N83">
+        <v>0.55</v>
       </c>
       <c r="O83">
-        <v>0.982</v>
-      </c>
-      <c r="P83">
-        <v>0.974</v>
-      </c>
-      <c r="Q83">
-        <v>0.971</v>
-      </c>
-      <c r="R83">
-        <v>0.919</v>
-      </c>
-      <c r="S83">
-        <v>0.867</v>
-      </c>
-      <c r="T83">
-        <v>0.885</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3558,28 +3501,28 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O84">
-        <v>0.987</v>
+        <v>0.572</v>
       </c>
       <c r="P84">
-        <v>0.97</v>
+        <v>0.617</v>
       </c>
       <c r="Q84">
-        <v>0.967</v>
+        <v>0.631</v>
       </c>
       <c r="R84">
-        <v>0.962</v>
+        <v>0.609</v>
       </c>
       <c r="S84">
-        <v>0.918</v>
+        <v>0.518</v>
       </c>
       <c r="T84">
-        <v>0.897</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3590,43 +3533,13 @@
         <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85">
-        <v>0.715</v>
-      </c>
-      <c r="F85">
-        <v>0.634</v>
-      </c>
-      <c r="G85">
-        <v>0.783</v>
+        <v>46</v>
       </c>
       <c r="H85">
-        <v>0.732</v>
-      </c>
-      <c r="I85">
-        <v>0.751</v>
-      </c>
-      <c r="J85">
-        <v>0.755</v>
-      </c>
-      <c r="K85">
-        <v>0.418</v>
-      </c>
-      <c r="L85">
-        <v>0.492</v>
-      </c>
-      <c r="M85">
-        <v>0.55</v>
-      </c>
-      <c r="N85">
-        <v>0.506</v>
-      </c>
-      <c r="O85">
-        <v>0.556</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3637,28 +3550,46 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="H86">
+        <v>0.586</v>
+      </c>
+      <c r="J86">
+        <v>0.582</v>
+      </c>
+      <c r="K86">
+        <v>0.614</v>
+      </c>
+      <c r="L86">
+        <v>0.731</v>
+      </c>
+      <c r="M86">
+        <v>0.733</v>
+      </c>
+      <c r="N86">
+        <v>0.741</v>
       </c>
       <c r="O86">
-        <v>0.719</v>
+        <v>0.695</v>
       </c>
       <c r="P86">
-        <v>0.759</v>
+        <v>0.475</v>
       </c>
       <c r="Q86">
-        <v>0.731</v>
+        <v>0.468</v>
       </c>
       <c r="R86">
-        <v>0.8120000000000001</v>
+        <v>0.468</v>
       </c>
       <c r="S86">
-        <v>0.729</v>
+        <v>0.51</v>
       </c>
       <c r="T86">
-        <v>0.676</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3669,13 +3600,43 @@
         <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87">
-        <v>0.543</v>
+        <v>48</v>
+      </c>
+      <c r="J87">
+        <v>0.825</v>
+      </c>
+      <c r="K87">
+        <v>0.872</v>
+      </c>
+      <c r="L87">
+        <v>0.86</v>
+      </c>
+      <c r="M87">
+        <v>0.76</v>
+      </c>
+      <c r="N87">
+        <v>0.746</v>
+      </c>
+      <c r="O87">
+        <v>0.759</v>
+      </c>
+      <c r="P87">
+        <v>0.99</v>
+      </c>
+      <c r="Q87">
+        <v>0.987</v>
+      </c>
+      <c r="R87">
+        <v>0.99</v>
+      </c>
+      <c r="S87">
+        <v>0.908</v>
+      </c>
+      <c r="T87">
+        <v>0.992</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3686,58 +3647,28 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88">
-        <v>0.593</v>
-      </c>
-      <c r="F88">
-        <v>0.583</v>
-      </c>
-      <c r="G88">
-        <v>0.747</v>
-      </c>
-      <c r="H88">
-        <v>0.617</v>
-      </c>
-      <c r="I88">
-        <v>0.759</v>
-      </c>
-      <c r="J88">
-        <v>0.728</v>
-      </c>
-      <c r="K88">
-        <v>0.694</v>
-      </c>
-      <c r="L88">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M88">
-        <v>0.821</v>
-      </c>
-      <c r="N88">
-        <v>0.785</v>
+        <v>49</v>
       </c>
       <c r="O88">
-        <v>0.787</v>
+        <v>0.59</v>
       </c>
       <c r="P88">
-        <v>0.759</v>
+        <v>0.63</v>
       </c>
       <c r="Q88">
-        <v>0.763</v>
+        <v>0.635</v>
       </c>
       <c r="R88">
-        <v>0.737</v>
+        <v>0.59</v>
       </c>
       <c r="S88">
-        <v>0.746</v>
+        <v>0.507</v>
       </c>
       <c r="T88">
-        <v>0.729</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3748,43 +3679,46 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>0.651</v>
       </c>
       <c r="J89">
-        <v>0.421</v>
+        <v>0.524</v>
       </c>
       <c r="K89">
-        <v>0.607</v>
+        <v>0.646</v>
       </c>
       <c r="L89">
-        <v>0.674</v>
+        <v>0.791</v>
       </c>
       <c r="M89">
-        <v>0.753</v>
+        <v>0.765</v>
       </c>
       <c r="N89">
-        <v>0.63</v>
+        <v>0.793</v>
       </c>
       <c r="O89">
-        <v>0.607</v>
+        <v>0.766</v>
       </c>
       <c r="P89">
-        <v>0.515</v>
+        <v>0.527</v>
       </c>
       <c r="Q89">
-        <v>0.534</v>
+        <v>0.542</v>
       </c>
       <c r="R89">
-        <v>0.524</v>
+        <v>0.507</v>
       </c>
       <c r="S89">
-        <v>0.453</v>
+        <v>0.519</v>
       </c>
       <c r="T89">
-        <v>0.5620000000000001</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3795,28 +3729,25 @@
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O90">
-        <v>0.719</v>
+        <v>0.675</v>
       </c>
       <c r="P90">
-        <v>0.736</v>
+        <v>0.455</v>
       </c>
       <c r="Q90">
-        <v>0.764</v>
+        <v>0.442</v>
       </c>
       <c r="R90">
-        <v>0.8</v>
+        <v>0.449</v>
       </c>
       <c r="S90">
-        <v>0.745</v>
-      </c>
-      <c r="T90">
-        <v>0.6</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3827,58 +3758,46 @@
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E91">
-        <v>0.979</v>
-      </c>
-      <c r="F91">
-        <v>0.92</v>
-      </c>
-      <c r="G91">
-        <v>0.9419999999999999</v>
+        <v>53</v>
       </c>
       <c r="H91">
-        <v>0.919</v>
-      </c>
-      <c r="I91">
-        <v>0.955</v>
+        <v>0.604</v>
       </c>
       <c r="J91">
-        <v>0.964</v>
+        <v>0.569</v>
       </c>
       <c r="K91">
-        <v>0.949</v>
+        <v>0.597</v>
       </c>
       <c r="L91">
-        <v>0.967</v>
+        <v>0.72</v>
       </c>
       <c r="M91">
-        <v>0.964</v>
+        <v>0.732</v>
       </c>
       <c r="N91">
-        <v>0.954</v>
+        <v>0.742</v>
       </c>
       <c r="O91">
-        <v>0.96</v>
+        <v>0.698</v>
       </c>
       <c r="P91">
-        <v>0.965</v>
+        <v>0.473</v>
       </c>
       <c r="Q91">
-        <v>0.964</v>
+        <v>0.45</v>
       </c>
       <c r="R91">
-        <v>0.958</v>
+        <v>0.445</v>
       </c>
       <c r="S91">
-        <v>0.931</v>
+        <v>0.498</v>
       </c>
       <c r="T91">
-        <v>0.957</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3889,43 +3808,13 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E92">
-        <v>0.976</v>
-      </c>
-      <c r="H92">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="I92">
-        <v>0.828</v>
-      </c>
-      <c r="J92">
-        <v>0.746</v>
-      </c>
-      <c r="N92">
-        <v>0.74</v>
+        <v>54</v>
       </c>
       <c r="O92">
-        <v>0.775</v>
-      </c>
-      <c r="P92">
-        <v>0.786</v>
-      </c>
-      <c r="Q92">
-        <v>0.763</v>
-      </c>
-      <c r="R92">
-        <v>0.74</v>
-      </c>
-      <c r="S92">
-        <v>0.772</v>
-      </c>
-      <c r="T92">
-        <v>0.777</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3936,25 +3825,31 @@
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="H93">
+        <v>0.698</v>
+      </c>
+      <c r="J93">
+        <v>0.681</v>
+      </c>
+      <c r="K93">
+        <v>0.743</v>
+      </c>
+      <c r="L93">
+        <v>0.841</v>
+      </c>
+      <c r="M93">
+        <v>0.737</v>
+      </c>
+      <c r="N93">
+        <v>0.821</v>
       </c>
       <c r="O93">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="P93">
-        <v>0.786</v>
-      </c>
-      <c r="Q93">
         <v>0.785</v>
-      </c>
-      <c r="R93">
-        <v>0.746</v>
-      </c>
-      <c r="S93">
-        <v>0.854</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -3965,49 +3860,46 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H94">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="I94">
-        <v>0.789</v>
+        <v>0.631</v>
       </c>
       <c r="J94">
-        <v>0.757</v>
+        <v>0.527</v>
       </c>
       <c r="K94">
-        <v>0.709</v>
+        <v>0.674</v>
       </c>
       <c r="L94">
-        <v>0.82</v>
+        <v>0.796</v>
       </c>
       <c r="M94">
-        <v>0.841</v>
+        <v>0.758</v>
       </c>
       <c r="N94">
-        <v>0.801</v>
+        <v>0.796</v>
       </c>
       <c r="O94">
-        <v>0.796</v>
+        <v>0.754</v>
       </c>
       <c r="P94">
-        <v>0.794</v>
+        <v>0.514</v>
       </c>
       <c r="Q94">
-        <v>0.767</v>
+        <v>0.532</v>
       </c>
       <c r="R94">
-        <v>0.734</v>
+        <v>0.524</v>
       </c>
       <c r="S94">
-        <v>0.778</v>
+        <v>0.524</v>
       </c>
       <c r="T94">
-        <v>0.773</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4018,13 +3910,46 @@
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="H95">
+        <v>0.615</v>
+      </c>
+      <c r="J95">
+        <v>0.573</v>
+      </c>
+      <c r="K95">
+        <v>0.597</v>
+      </c>
+      <c r="L95">
+        <v>0.724</v>
+      </c>
+      <c r="M95">
+        <v>0.725</v>
+      </c>
+      <c r="N95">
+        <v>0.741</v>
       </c>
       <c r="O95">
-        <v>0.767</v>
+        <v>0.705</v>
+      </c>
+      <c r="P95">
+        <v>0.476</v>
+      </c>
+      <c r="Q95">
+        <v>0.442</v>
+      </c>
+      <c r="R95">
+        <v>0.458</v>
+      </c>
+      <c r="S95">
+        <v>0.518</v>
+      </c>
+      <c r="T95">
+        <v>0.541</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4035,31 +3960,19 @@
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96">
-        <v>0.573</v>
-      </c>
-      <c r="J96">
-        <v>0.676</v>
-      </c>
-      <c r="K96">
-        <v>0.84</v>
-      </c>
-      <c r="L96">
-        <v>0.822</v>
-      </c>
-      <c r="M96">
-        <v>0.595</v>
-      </c>
-      <c r="N96">
-        <v>0.85</v>
+        <v>58</v>
       </c>
       <c r="O96">
-        <v>0.853</v>
+        <v>0.453</v>
+      </c>
+      <c r="P96">
+        <v>0.506</v>
+      </c>
+      <c r="Q96">
+        <v>0.531</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4067,52 +3980,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="I97">
-        <v>0.957</v>
-      </c>
-      <c r="J97">
-        <v>0.971</v>
-      </c>
-      <c r="K97">
-        <v>0.975</v>
-      </c>
-      <c r="L97">
-        <v>0.977</v>
-      </c>
-      <c r="M97">
-        <v>0.97</v>
-      </c>
-      <c r="N97">
-        <v>0.972</v>
+        <v>0.741</v>
       </c>
       <c r="O97">
-        <v>0.971</v>
+        <v>0.982</v>
       </c>
       <c r="P97">
         <v>0.974</v>
       </c>
       <c r="Q97">
-        <v>0.979</v>
+        <v>0.971</v>
       </c>
       <c r="R97">
-        <v>0.97</v>
+        <v>0.919</v>
       </c>
       <c r="S97">
-        <v>0.959</v>
+        <v>0.867</v>
       </c>
       <c r="T97">
-        <v>0.965</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4120,52 +4015,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H98">
-        <v>0.618</v>
-      </c>
-      <c r="I98">
-        <v>0.759</v>
-      </c>
-      <c r="J98">
-        <v>0.746</v>
-      </c>
-      <c r="K98">
-        <v>0.679</v>
-      </c>
-      <c r="L98">
-        <v>0.805</v>
-      </c>
-      <c r="M98">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N98">
-        <v>0.773</v>
+        <v>43</v>
       </c>
       <c r="O98">
-        <v>0.8080000000000001</v>
+        <v>0.987</v>
       </c>
       <c r="P98">
-        <v>0.775</v>
+        <v>0.97</v>
       </c>
       <c r="Q98">
-        <v>0.769</v>
+        <v>0.967</v>
       </c>
       <c r="R98">
-        <v>0.735</v>
+        <v>0.962</v>
       </c>
       <c r="S98">
-        <v>0.774</v>
+        <v>0.918</v>
       </c>
       <c r="T98">
-        <v>0.754</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4173,22 +4047,46 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="E99">
+        <v>0.715</v>
+      </c>
+      <c r="F99">
+        <v>0.634</v>
+      </c>
+      <c r="G99">
+        <v>0.783</v>
+      </c>
+      <c r="H99">
+        <v>0.732</v>
+      </c>
+      <c r="I99">
+        <v>0.751</v>
+      </c>
+      <c r="J99">
+        <v>0.755</v>
+      </c>
+      <c r="K99">
+        <v>0.418</v>
+      </c>
+      <c r="L99">
+        <v>0.492</v>
+      </c>
+      <c r="M99">
+        <v>0.55</v>
+      </c>
+      <c r="N99">
+        <v>0.506</v>
       </c>
       <c r="O99">
-        <v>0.99</v>
-      </c>
-      <c r="P99">
-        <v>0.969</v>
-      </c>
-      <c r="Q99">
-        <v>0.977</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4199,28 +4097,28 @@
         <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O100">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="P100">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="Q100">
-        <v>0.754</v>
+        <v>0.731</v>
       </c>
       <c r="R100">
-        <v>0.751</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="S100">
-        <v>0.652</v>
+        <v>0.729</v>
       </c>
       <c r="T100">
-        <v>0.578</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4231,28 +4129,13 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O101">
-        <v>0.715</v>
-      </c>
-      <c r="P101">
-        <v>0.762</v>
-      </c>
-      <c r="Q101">
-        <v>0.751</v>
-      </c>
-      <c r="R101">
-        <v>0.824</v>
-      </c>
-      <c r="S101">
-        <v>0.78</v>
-      </c>
-      <c r="T101">
-        <v>0.79</v>
+        <v>46</v>
+      </c>
+      <c r="H101">
+        <v>0.543</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -4263,16 +4146,58 @@
         <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="E102">
+        <v>0.593</v>
+      </c>
+      <c r="F102">
+        <v>0.583</v>
+      </c>
+      <c r="G102">
+        <v>0.747</v>
+      </c>
+      <c r="H102">
+        <v>0.617</v>
       </c>
       <c r="I102">
-        <v>0.7</v>
+        <v>0.759</v>
       </c>
       <c r="J102">
-        <v>0.872</v>
+        <v>0.728</v>
+      </c>
+      <c r="K102">
+        <v>0.694</v>
+      </c>
+      <c r="L102">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M102">
+        <v>0.821</v>
+      </c>
+      <c r="N102">
+        <v>0.785</v>
+      </c>
+      <c r="O102">
+        <v>0.787</v>
+      </c>
+      <c r="P102">
+        <v>0.759</v>
+      </c>
+      <c r="Q102">
+        <v>0.763</v>
+      </c>
+      <c r="R102">
+        <v>0.737</v>
+      </c>
+      <c r="S102">
+        <v>0.746</v>
+      </c>
+      <c r="T102">
+        <v>0.729</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -4283,28 +4208,43 @@
         <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>0.421</v>
+      </c>
+      <c r="K103">
+        <v>0.607</v>
+      </c>
+      <c r="L103">
+        <v>0.674</v>
+      </c>
+      <c r="M103">
+        <v>0.753</v>
+      </c>
+      <c r="N103">
+        <v>0.63</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>0.607</v>
       </c>
       <c r="P103">
-        <v>0.998</v>
+        <v>0.515</v>
       </c>
       <c r="Q103">
-        <v>0.997</v>
+        <v>0.534</v>
       </c>
       <c r="R103">
-        <v>0.997</v>
+        <v>0.524</v>
       </c>
       <c r="S103">
-        <v>0.995</v>
+        <v>0.453</v>
       </c>
       <c r="T103">
-        <v>0.998</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -4315,34 +4255,28 @@
         <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I104">
-        <v>0.871</v>
-      </c>
-      <c r="J104">
-        <v>0.959</v>
+        <v>49</v>
       </c>
       <c r="O104">
-        <v>0.573</v>
+        <v>0.719</v>
       </c>
       <c r="P104">
-        <v>0.532</v>
+        <v>0.736</v>
       </c>
       <c r="Q104">
-        <v>0.532</v>
+        <v>0.764</v>
       </c>
       <c r="R104">
-        <v>0.5639999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="S104">
-        <v>0.506</v>
+        <v>0.745</v>
       </c>
       <c r="T104">
-        <v>0.442</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -4353,28 +4287,58 @@
         <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>0.979</v>
+      </c>
+      <c r="F105">
+        <v>0.92</v>
+      </c>
+      <c r="G105">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.919</v>
+      </c>
+      <c r="I105">
+        <v>0.955</v>
+      </c>
+      <c r="J105">
+        <v>0.964</v>
+      </c>
+      <c r="K105">
+        <v>0.949</v>
+      </c>
+      <c r="L105">
+        <v>0.967</v>
+      </c>
+      <c r="M105">
+        <v>0.964</v>
+      </c>
+      <c r="N105">
+        <v>0.954</v>
       </c>
       <c r="O105">
-        <v>0.581</v>
+        <v>0.96</v>
       </c>
       <c r="P105">
-        <v>0.622</v>
+        <v>0.965</v>
       </c>
       <c r="Q105">
-        <v>0.633</v>
+        <v>0.964</v>
       </c>
       <c r="R105">
-        <v>0.601</v>
+        <v>0.958</v>
       </c>
       <c r="S105">
-        <v>0.494</v>
+        <v>0.931</v>
       </c>
       <c r="T105">
-        <v>0.67</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -4385,28 +4349,43 @@
         <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E106">
+        <v>0.976</v>
+      </c>
+      <c r="H106">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.828</v>
+      </c>
+      <c r="J106">
+        <v>0.746</v>
+      </c>
+      <c r="N106">
+        <v>0.74</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="P106">
-        <v>0.997</v>
+        <v>0.786</v>
       </c>
       <c r="Q106">
-        <v>0.997</v>
+        <v>0.763</v>
       </c>
       <c r="R106">
-        <v>0.997</v>
+        <v>0.74</v>
       </c>
       <c r="S106">
-        <v>0.994</v>
+        <v>0.772</v>
       </c>
       <c r="T106">
-        <v>0.998</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -4417,34 +4396,25 @@
         <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I107">
-        <v>0.829</v>
-      </c>
-      <c r="J107">
-        <v>0.831</v>
+        <v>52</v>
       </c>
       <c r="O107">
-        <v>0.74</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="P107">
-        <v>0.766</v>
+        <v>0.786</v>
       </c>
       <c r="Q107">
-        <v>0.751</v>
+        <v>0.785</v>
       </c>
       <c r="R107">
-        <v>0.8169999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="S107">
-        <v>0.762</v>
-      </c>
-      <c r="T107">
-        <v>0.843</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -4455,34 +4425,49 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="H108">
+        <v>0.6830000000000001</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0.789</v>
       </c>
       <c r="J108">
-        <v>0.982</v>
+        <v>0.757</v>
+      </c>
+      <c r="K108">
+        <v>0.709</v>
+      </c>
+      <c r="L108">
+        <v>0.82</v>
+      </c>
+      <c r="M108">
+        <v>0.841</v>
+      </c>
+      <c r="N108">
+        <v>0.801</v>
       </c>
       <c r="O108">
-        <v>0.59</v>
+        <v>0.796</v>
       </c>
       <c r="P108">
-        <v>0.604</v>
+        <v>0.794</v>
       </c>
       <c r="Q108">
-        <v>0.587</v>
+        <v>0.767</v>
       </c>
       <c r="R108">
-        <v>0.616</v>
+        <v>0.734</v>
       </c>
       <c r="S108">
-        <v>0.588</v>
+        <v>0.778</v>
       </c>
       <c r="T108">
-        <v>0.543</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -4493,25 +4478,13 @@
         <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O109">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P109">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="Q109">
-        <v>0.543</v>
-      </c>
-      <c r="R109">
-        <v>0.57</v>
-      </c>
-      <c r="S109">
-        <v>0.6909999999999999</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -4522,34 +4495,31 @@
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I110">
-        <v>0.714</v>
+        <v>55</v>
+      </c>
+      <c r="H110">
+        <v>0.573</v>
       </c>
       <c r="J110">
-        <v>0.922</v>
+        <v>0.676</v>
+      </c>
+      <c r="K110">
+        <v>0.84</v>
+      </c>
+      <c r="L110">
+        <v>0.822</v>
+      </c>
+      <c r="M110">
+        <v>0.595</v>
+      </c>
+      <c r="N110">
+        <v>0.85</v>
       </c>
       <c r="O110">
-        <v>0.554</v>
-      </c>
-      <c r="P110">
-        <v>0.571</v>
-      </c>
-      <c r="Q110">
-        <v>0.538</v>
-      </c>
-      <c r="R110">
-        <v>0.555</v>
-      </c>
-      <c r="S110">
-        <v>0.555</v>
-      </c>
-      <c r="T110">
-        <v>0.46</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -4565,29 +4535,44 @@
       <c r="D111" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="H111">
+        <v>0.9350000000000001</v>
+      </c>
       <c r="I111">
-        <v>0.792</v>
+        <v>0.957</v>
       </c>
       <c r="J111">
-        <v>0.827</v>
+        <v>0.971</v>
+      </c>
+      <c r="K111">
+        <v>0.975</v>
+      </c>
+      <c r="L111">
+        <v>0.977</v>
+      </c>
+      <c r="M111">
+        <v>0.97</v>
+      </c>
+      <c r="N111">
+        <v>0.972</v>
       </c>
       <c r="O111">
-        <v>0.714</v>
+        <v>0.971</v>
       </c>
       <c r="P111">
-        <v>0.745</v>
+        <v>0.974</v>
       </c>
       <c r="Q111">
-        <v>0.743</v>
+        <v>0.979</v>
       </c>
       <c r="R111">
-        <v>0.801</v>
+        <v>0.97</v>
       </c>
       <c r="S111">
-        <v>0.725</v>
+        <v>0.959</v>
       </c>
       <c r="T111">
-        <v>0.613</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -4603,29 +4588,44 @@
       <c r="D112" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="H112">
+        <v>0.618</v>
+      </c>
       <c r="I112">
-        <v>0.855</v>
+        <v>0.759</v>
       </c>
       <c r="J112">
-        <v>0.9419999999999999</v>
+        <v>0.746</v>
+      </c>
+      <c r="K112">
+        <v>0.679</v>
+      </c>
+      <c r="L112">
+        <v>0.805</v>
+      </c>
+      <c r="M112">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N112">
+        <v>0.773</v>
       </c>
       <c r="O112">
-        <v>0.552</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="P112">
-        <v>0.548</v>
+        <v>0.775</v>
       </c>
       <c r="Q112">
-        <v>0.532</v>
+        <v>0.769</v>
       </c>
       <c r="R112">
-        <v>0.551</v>
+        <v>0.735</v>
       </c>
       <c r="S112">
-        <v>0.537</v>
+        <v>0.774</v>
       </c>
       <c r="T112">
-        <v>0.462</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -4642,13 +4642,13 @@
         <v>58</v>
       </c>
       <c r="O113">
-        <v>0.723</v>
+        <v>0.99</v>
       </c>
       <c r="P113">
-        <v>0.743</v>
+        <v>0.969</v>
       </c>
       <c r="Q113">
-        <v>0.768</v>
+        <v>0.977</v>
       </c>
     </row>
   </sheetData>

--- a/ep/ep/export/flourish/Joint_group_party.xlsx
+++ b/ep/ep/export/flourish/Joint_group_party.xlsx
@@ -79,7 +79,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
